--- a/routes/api/data.xlsx
+++ b/routes/api/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="81">
   <si>
     <t>Réponse 2</t>
   </si>
@@ -38,19 +38,58 @@
     <t>Réponse 1</t>
   </si>
   <si>
-    <t>5a26fe643a895e5728fc7aaf</t>
-  </si>
-  <si>
     <t>Chapitre 1</t>
   </si>
   <si>
+    <t>Titre question 1</t>
+  </si>
+  <si>
+    <t>Commentaire 1</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>chapter</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>answer1</t>
+  </si>
+  <si>
+    <t>answer2</t>
+  </si>
+  <si>
+    <t>answer3</t>
+  </si>
+  <si>
+    <t>answer4</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
     <t>Chapitre 2</t>
   </si>
   <si>
     <t>Chapitre 3</t>
   </si>
   <si>
-    <t>Titre question 1</t>
+    <t>Chapitre 4</t>
+  </si>
+  <si>
+    <t>Chapitre 5</t>
+  </si>
+  <si>
+    <t>Chapitre 6</t>
   </si>
   <si>
     <t>Titre question 2</t>
@@ -77,7 +116,64 @@
     <t>Titre question 9</t>
   </si>
   <si>
-    <t>Commentaire 1</t>
+    <t>Titre question 10</t>
+  </si>
+  <si>
+    <t>Titre question 11</t>
+  </si>
+  <si>
+    <t>Titre question 12</t>
+  </si>
+  <si>
+    <t>Titre question 13</t>
+  </si>
+  <si>
+    <t>Titre question 14</t>
+  </si>
+  <si>
+    <t>Titre question 15</t>
+  </si>
+  <si>
+    <t>Titre question 16</t>
+  </si>
+  <si>
+    <t>Titre question 17</t>
+  </si>
+  <si>
+    <t>Titre question 18</t>
+  </si>
+  <si>
+    <t>Titre question 19</t>
+  </si>
+  <si>
+    <t>Titre question 20</t>
+  </si>
+  <si>
+    <t>Titre question 21</t>
+  </si>
+  <si>
+    <t>Titre question 22</t>
+  </si>
+  <si>
+    <t>Titre question 23</t>
+  </si>
+  <si>
+    <t>Titre question 24</t>
+  </si>
+  <si>
+    <t>Titre question 25</t>
+  </si>
+  <si>
+    <t>Titre question 26</t>
+  </si>
+  <si>
+    <t>Titre question 27</t>
+  </si>
+  <si>
+    <t>Titre question 28</t>
+  </si>
+  <si>
+    <t>Titre question 29</t>
   </si>
   <si>
     <t>Commentaire 2</t>
@@ -104,142 +200,73 @@
     <t>Commentaire 9</t>
   </si>
   <si>
-    <t>training</t>
-  </si>
-  <si>
-    <t>chapter</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>answer1</t>
-  </si>
-  <si>
-    <t>answer2</t>
-  </si>
-  <si>
-    <t>answer3</t>
-  </si>
-  <si>
-    <t>answer4</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>Titre question 10</t>
-  </si>
-  <si>
     <t>Commentaire 10</t>
   </si>
   <si>
-    <t>Titre question 11</t>
-  </si>
-  <si>
     <t>Commentaire 11</t>
   </si>
   <si>
-    <t>Titre question 12</t>
-  </si>
-  <si>
     <t>Commentaire 12</t>
   </si>
   <si>
-    <t>Titre question 13</t>
-  </si>
-  <si>
     <t>Commentaire 13</t>
   </si>
   <si>
-    <t>Titre question 14</t>
-  </si>
-  <si>
     <t>Commentaire 14</t>
   </si>
   <si>
-    <t>Titre question 15</t>
-  </si>
-  <si>
     <t>Commentaire 15</t>
   </si>
   <si>
-    <t>Titre question 16</t>
-  </si>
-  <si>
     <t>Commentaire 16</t>
   </si>
   <si>
-    <t>Titre question 17</t>
-  </si>
-  <si>
     <t>Commentaire 17</t>
   </si>
   <si>
-    <t>Titre question 18</t>
-  </si>
-  <si>
     <t>Commentaire 18</t>
   </si>
   <si>
-    <t>Titre question 19</t>
-  </si>
-  <si>
     <t>Commentaire 19</t>
   </si>
   <si>
-    <t>Titre question 20</t>
-  </si>
-  <si>
     <t>Commentaire 20</t>
   </si>
   <si>
-    <t>Titre question 21</t>
-  </si>
-  <si>
     <t>Commentaire 21</t>
   </si>
   <si>
-    <t>Titre question 22</t>
-  </si>
-  <si>
     <t>Commentaire 22</t>
   </si>
   <si>
-    <t>Titre question 23</t>
-  </si>
-  <si>
     <t>Commentaire 23</t>
   </si>
   <si>
-    <t>Titre question 24</t>
-  </si>
-  <si>
     <t>Commentaire 24</t>
   </si>
   <si>
-    <t>Titre question 25</t>
-  </si>
-  <si>
     <t>Commentaire 25</t>
   </si>
   <si>
-    <t>Titre question 26</t>
-  </si>
-  <si>
     <t>Commentaire 26</t>
   </si>
   <si>
-    <t>Titre question 27</t>
-  </si>
-  <si>
     <t>Commentaire 27</t>
+  </si>
+  <si>
+    <t>Commentaire 28</t>
+  </si>
+  <si>
+    <t>Commentaire 29</t>
+  </si>
+  <si>
+    <t>Titre question 30</t>
+  </si>
+  <si>
+    <t>Commentaire 30</t>
+  </si>
+  <si>
+    <t>5a26fe663a895e5728fc7ab0</t>
   </si>
 </sst>
 </file>
@@ -591,65 +618,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BFDAC1-0997-4204-AF7F-15BB82242C08}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -669,19 +697,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -696,24 +724,24 @@
         <v>2</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -728,24 +756,24 @@
         <v>2</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
@@ -760,24 +788,24 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
@@ -797,19 +825,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
@@ -824,24 +852,24 @@
         <v>2</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
         <v>3</v>
@@ -856,24 +884,24 @@
         <v>2</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
@@ -888,24 +916,24 @@
         <v>2</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
@@ -925,19 +953,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
@@ -952,24 +980,24 @@
         <v>2</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
@@ -984,24 +1012,24 @@
         <v>2</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
         <v>3</v>
@@ -1016,24 +1044,24 @@
         <v>2</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
         <v>3</v>
@@ -1053,19 +1081,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
         <v>3</v>
@@ -1080,24 +1108,24 @@
         <v>2</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
         <v>3</v>
@@ -1112,24 +1140,24 @@
         <v>2</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
         <v>3</v>
@@ -1144,24 +1172,24 @@
         <v>2</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
         <v>3</v>
@@ -1181,19 +1209,19 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
         <v>3</v>
@@ -1208,24 +1236,24 @@
         <v>2</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
         <v>3</v>
@@ -1240,24 +1268,24 @@
         <v>2</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>
@@ -1272,24 +1300,24 @@
         <v>2</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
         <v>3</v>
@@ -1309,19 +1337,19 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
         <v>3</v>
@@ -1336,24 +1364,24 @@
         <v>2</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
         <v>3</v>
@@ -1368,24 +1396,24 @@
         <v>2</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
         <v>3</v>
@@ -1400,24 +1428,24 @@
         <v>2</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
         <v>3</v>
@@ -1437,19 +1465,19 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
         <v>3</v>
@@ -1464,24 +1492,24 @@
         <v>2</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
         <v>3</v>
@@ -1496,7 +1524,103 @@
         <v>2</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
